--- a/data/trans_orig/P17-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P17-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>6198</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2155</v>
+        <v>2139</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13421</v>
+        <v>13290</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.008943389528887801</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.003109605557946058</v>
+        <v>0.003085735070408267</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01936517189007255</v>
+        <v>0.01917632480917838</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6598</v>
+        <v>6811</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.001745367334118589</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.009585140248497324</v>
+        <v>0.009894329623049068</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -786,19 +786,19 @@
         <v>7399</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3245</v>
+        <v>3162</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>14056</v>
+        <v>14880</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.005356578256240233</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.002348873970997416</v>
+        <v>0.002288756952335797</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01017517576275493</v>
+        <v>0.01077211326704588</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>148498</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>128308</v>
+        <v>128129</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>171385</v>
+        <v>170291</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2142725171313461</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1851388959370557</v>
+        <v>0.1848813197617739</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2472970841148912</v>
+        <v>0.2457177118474747</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>62</v>
@@ -836,19 +836,19 @@
         <v>60525</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>46928</v>
+        <v>46299</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>75060</v>
+        <v>75426</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.08792783632185404</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06817410404749125</v>
+        <v>0.06726036994754528</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1090438331656378</v>
+        <v>0.1095748806900227</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>206</v>
@@ -857,19 +857,19 @@
         <v>209023</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>183998</v>
+        <v>186179</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>234126</v>
+        <v>239915</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.151314316516757</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1331983338933757</v>
+        <v>0.1347767765166714</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1694860704105828</v>
+        <v>0.1736772697414453</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>109440</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>90297</v>
+        <v>90976</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>130077</v>
+        <v>130445</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1579140980636342</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1302929400382589</v>
+        <v>0.1312726206421606</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1876922781903329</v>
+        <v>0.1882232325775704</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>184</v>
@@ -907,19 +907,19 @@
         <v>183533</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>162716</v>
+        <v>160696</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>204386</v>
+        <v>206419</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2666267939398796</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2363854145880078</v>
+        <v>0.2334503870603139</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2969212862763922</v>
+        <v>0.2998739910741792</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>293</v>
@@ -928,19 +928,19 @@
         <v>292973</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>261989</v>
+        <v>264839</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>322016</v>
+        <v>323461</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2120861904103606</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1896570074301107</v>
+        <v>0.1917195882231722</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2331107574469221</v>
+        <v>0.2341568984208226</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>71612</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>56316</v>
+        <v>57676</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>88966</v>
+        <v>90062</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1033307500334631</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08125996945316032</v>
+        <v>0.08322226163011928</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1283719657981546</v>
+        <v>0.1299536064772791</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>65</v>
@@ -978,19 +978,19 @@
         <v>65903</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>51494</v>
+        <v>51299</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>82041</v>
+        <v>82294</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09573981363933534</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0748083399272986</v>
+        <v>0.07452383970996822</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1191852685082585</v>
+        <v>0.1195523112129206</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>132</v>
@@ -999,19 +999,19 @@
         <v>137514</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>115441</v>
+        <v>117075</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>157945</v>
+        <v>163747</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09954814760578592</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08356873424142129</v>
+        <v>0.08475188013589524</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1143381334742198</v>
+        <v>0.1185382439221756</v>
       </c>
     </row>
     <row r="8">
@@ -1028,19 +1028,19 @@
         <v>357286</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>329964</v>
+        <v>331821</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>384013</v>
+        <v>385576</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5155392452426688</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4761145491117205</v>
+        <v>0.4787946767322096</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5541046471129361</v>
+        <v>0.5563589384253156</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>384</v>
@@ -1049,19 +1049,19 @@
         <v>377189</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>350952</v>
+        <v>348782</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>401829</v>
+        <v>401827</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5479601887648125</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5098442855551967</v>
+        <v>0.5066914636077812</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5837565831547186</v>
+        <v>0.5837530015563662</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>740</v>
@@ -1070,19 +1070,19 @@
         <v>734475</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>700222</v>
+        <v>696208</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>769861</v>
+        <v>773278</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5316947672108563</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5068981710050015</v>
+        <v>0.5039927038504866</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5573107568955613</v>
+        <v>0.5597848955203533</v>
       </c>
     </row>
     <row r="9">
@@ -1174,19 +1174,19 @@
         <v>23257</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>14695</v>
+        <v>14392</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>34383</v>
+        <v>35675</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02420578109382126</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01529405341486668</v>
+        <v>0.01497945579378935</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03578575567564091</v>
+        <v>0.03712987667815978</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>13</v>
@@ -1195,19 +1195,19 @@
         <v>14026</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7481</v>
+        <v>7464</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>23498</v>
+        <v>22795</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01448352798830197</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.00772520284069694</v>
+        <v>0.007707637782011052</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02426475984562191</v>
+        <v>0.02353932623144994</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>34</v>
@@ -1216,19 +1216,19 @@
         <v>37283</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>26265</v>
+        <v>26146</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>51468</v>
+        <v>51238</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01932554978981867</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01361456934371274</v>
+        <v>0.01355284085884561</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02667858279292608</v>
+        <v>0.02655890242926184</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>234871</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>208911</v>
+        <v>210175</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>264140</v>
+        <v>266718</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2444512359664358</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2174315916732685</v>
+        <v>0.2187473972069649</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2749135731444644</v>
+        <v>0.2775964752036204</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>107</v>
@@ -1266,19 +1266,19 @@
         <v>114664</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>95167</v>
+        <v>96574</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>138076</v>
+        <v>139675</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1184064037558188</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.09827297100427287</v>
+        <v>0.09972567215617931</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1425825987258425</v>
+        <v>0.1442336468376732</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>321</v>
@@ -1287,19 +1287,19 @@
         <v>349535</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>316588</v>
+        <v>315337</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>387067</v>
+        <v>383584</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1811811349738171</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1641028085575957</v>
+        <v>0.1634545004297525</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2006356502589946</v>
+        <v>0.198830414721037</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>135991</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>114066</v>
+        <v>115377</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>159463</v>
+        <v>160494</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1415378752193914</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1187185315004168</v>
+        <v>0.1200829121450165</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1659666086403357</v>
+        <v>0.167040395938125</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>211</v>
@@ -1337,19 +1337,19 @@
         <v>225678</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>198220</v>
+        <v>200221</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>252883</v>
+        <v>251438</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2330433426797582</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2046892246069021</v>
+        <v>0.2067564037315054</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2611368332628988</v>
+        <v>0.2596442912260963</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>336</v>
@@ -1358,19 +1358,19 @@
         <v>361669</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>323536</v>
+        <v>326161</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>398192</v>
+        <v>395711</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1874704221239722</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1677045186408495</v>
+        <v>0.1690652540821986</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2064019984191283</v>
+        <v>0.2051162903283033</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>74908</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>56999</v>
+        <v>59435</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>92356</v>
+        <v>93328</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07796315523517726</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05932381801097421</v>
+        <v>0.06185875479060361</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09612252580686084</v>
+        <v>0.09713467241135929</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>74</v>
@@ -1408,19 +1408,19 @@
         <v>79792</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>62671</v>
+        <v>63676</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>97810</v>
+        <v>98616</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08239603611228374</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06471649461251162</v>
+        <v>0.06575400927016217</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1010025782003603</v>
+        <v>0.1018346415722795</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>141</v>
@@ -1429,19 +1429,19 @@
         <v>154700</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>132420</v>
+        <v>129110</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>182791</v>
+        <v>181480</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08018830652352299</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06863995014817581</v>
+        <v>0.06692401276474305</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09474954715302311</v>
+        <v>0.0940697014836827</v>
       </c>
     </row>
     <row r="14">
@@ -1458,19 +1458,19 @@
         <v>491783</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>459000</v>
+        <v>458427</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>524211</v>
+        <v>523058</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5118419524851743</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4777209179242969</v>
+        <v>0.4771250736472875</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5455923671205521</v>
+        <v>0.544392014545746</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>503</v>
@@ -1479,19 +1479,19 @@
         <v>534234</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>501686</v>
+        <v>500387</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>563889</v>
+        <v>564248</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5516706894638373</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5180604886346338</v>
+        <v>0.516718588339565</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5822933572182971</v>
+        <v>0.5826645219190113</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>971</v>
@@ -1500,19 +1500,19 @@
         <v>1026017</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>979477</v>
+        <v>979810</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1073652</v>
+        <v>1067318</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.531834586588869</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5077102592638714</v>
+        <v>0.5078829814971559</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5565260692396976</v>
+        <v>0.5532427343134623</v>
       </c>
     </row>
     <row r="15">
@@ -1604,19 +1604,19 @@
         <v>16365</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8622</v>
+        <v>8974</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>26949</v>
+        <v>28461</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0242088723372159</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01275509316936252</v>
+        <v>0.01327462570526246</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03986604410333046</v>
+        <v>0.04210188938667139</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -1625,19 +1625,19 @@
         <v>7056</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2641</v>
+        <v>2574</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>15649</v>
+        <v>15086</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01031815414335594</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.003861913936931752</v>
+        <v>0.003764408882083892</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02288349991729625</v>
+        <v>0.02206001345369942</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>19</v>
@@ -1646,19 +1646,19 @@
         <v>23421</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>14323</v>
+        <v>13452</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>35627</v>
+        <v>36059</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01722346993769128</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01053285471187069</v>
+        <v>0.009892258871053033</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02619951669326847</v>
+        <v>0.02651669336606733</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>188611</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>166341</v>
+        <v>166470</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>214098</v>
+        <v>214440</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2790104298371108</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2460661199365665</v>
+        <v>0.2462568734753048</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3167130704436996</v>
+        <v>0.3172191392058802</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>96</v>
@@ -1696,19 +1696,19 @@
         <v>95757</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>79539</v>
+        <v>78899</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>114381</v>
+        <v>114185</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.140028814999425</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1163125017767278</v>
+        <v>0.1153764641589854</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.167262473861236</v>
+        <v>0.1669754235231826</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>270</v>
@@ -1717,19 +1717,19 @@
         <v>284369</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>257146</v>
+        <v>255443</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>314941</v>
+        <v>315454</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2091189748217674</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1890996391823394</v>
+        <v>0.1878475314847186</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.231601123411468</v>
+        <v>0.2319785836078838</v>
       </c>
     </row>
     <row r="18">
@@ -1746,19 +1746,19 @@
         <v>90152</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>72843</v>
+        <v>72984</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>109985</v>
+        <v>108064</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1333607074106257</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1077560037918026</v>
+        <v>0.1079638546100847</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1626991104531124</v>
+        <v>0.1598574539308823</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>157</v>
@@ -1767,19 +1767,19 @@
         <v>153632</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>132911</v>
+        <v>131753</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>175800</v>
+        <v>174539</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2246600867788431</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1943596183857971</v>
+        <v>0.1926666070964392</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2570767565853986</v>
+        <v>0.2552328975818757</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>245</v>
@@ -1788,19 +1788,19 @@
         <v>243784</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>218258</v>
+        <v>216435</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>272758</v>
+        <v>273419</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1792735892942824</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1605023766506328</v>
+        <v>0.159161810271494</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2005808314492269</v>
+        <v>0.2010666206196355</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>94339</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>77289</v>
+        <v>77610</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>113815</v>
+        <v>113210</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1395540798102876</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.114333021009597</v>
+        <v>0.1148073453234039</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.168365230161369</v>
+        <v>0.1674695241172283</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>79</v>
@@ -1838,19 +1838,19 @@
         <v>76199</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>61291</v>
+        <v>60924</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>92759</v>
+        <v>93734</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1114282630178642</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.08962767755260737</v>
+        <v>0.08909060152448287</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1356446788823232</v>
+        <v>0.137069174407676</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>172</v>
@@ -1859,19 +1859,19 @@
         <v>170538</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>146896</v>
+        <v>147927</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>193740</v>
+        <v>198370</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1254100920503726</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1080244212269748</v>
+        <v>0.1087823263816089</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1424727936200675</v>
+        <v>0.1458772037031069</v>
       </c>
     </row>
     <row r="20">
@@ -1888,19 +1888,19 @@
         <v>286534</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>261717</v>
+        <v>261015</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>314807</v>
+        <v>314943</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.42386591060476</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3871548335231374</v>
+        <v>0.3861163857710527</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.465689853525468</v>
+        <v>0.4658911828830491</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>358</v>
@@ -1909,19 +1909,19 @@
         <v>351197</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>322744</v>
+        <v>323184</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>374996</v>
+        <v>376030</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5135646810605118</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4719571260364554</v>
+        <v>0.4726013284414821</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5483671813168313</v>
+        <v>0.5498799079419185</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>629</v>
@@ -1930,19 +1930,19 @@
         <v>637730</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>601345</v>
+        <v>599328</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>672814</v>
+        <v>676348</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4689738738958863</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.442216973320933</v>
+        <v>0.4407339035329104</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4947740090176746</v>
+        <v>0.4973724377556759</v>
       </c>
     </row>
     <row r="21">
@@ -2034,19 +2034,19 @@
         <v>18397</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>11742</v>
+        <v>10822</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>28779</v>
+        <v>27530</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01962847745087068</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0125281454016308</v>
+        <v>0.01154592434177444</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03070473230242127</v>
+        <v>0.0293716536538839</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>21</v>
@@ -2055,19 +2055,19 @@
         <v>24040</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>14841</v>
+        <v>16016</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>35297</v>
+        <v>36169</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02318871563002544</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01431557032314423</v>
+        <v>0.01544884577183398</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03404701422854117</v>
+        <v>0.03488888383053629</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>40</v>
@@ -2076,19 +2076,19 @@
         <v>42437</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>30835</v>
+        <v>30491</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>58095</v>
+        <v>56663</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02149825011868836</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01562083358772784</v>
+        <v>0.01544617038367236</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02943002551487173</v>
+        <v>0.02870490035340044</v>
       </c>
     </row>
     <row r="23">
@@ -2105,19 +2105,19 @@
         <v>232940</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>210451</v>
+        <v>210552</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>260781</v>
+        <v>258697</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2485257293762334</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2245325163796045</v>
+        <v>0.2246404986560219</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2782294688747091</v>
+        <v>0.2760067825300899</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>141</v>
@@ -2126,19 +2126,19 @@
         <v>144087</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>122770</v>
+        <v>124847</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>168470</v>
+        <v>169336</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1389858367182139</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1184230402419231</v>
+        <v>0.1204271581605318</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1625056357798525</v>
+        <v>0.1633405733110068</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>388</v>
@@ -2147,19 +2147,19 @@
         <v>377027</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>345590</v>
+        <v>344034</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>411289</v>
+        <v>413108</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1909973599185829</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1750718257875074</v>
+        <v>0.1742835369258212</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2083539111764768</v>
+        <v>0.20927563322179</v>
       </c>
     </row>
     <row r="24">
@@ -2176,19 +2176,19 @@
         <v>70381</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>56182</v>
+        <v>55784</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>86636</v>
+        <v>85981</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.07509050049226405</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.05994122695481634</v>
+        <v>0.05951647381223803</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.09243318600828436</v>
+        <v>0.09173417623206176</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>146</v>
@@ -2197,19 +2197,19 @@
         <v>148679</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>127370</v>
+        <v>126630</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>171614</v>
+        <v>173010</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1434154704988873</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1228607231215154</v>
+        <v>0.1221466252616281</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1655384127928319</v>
+        <v>0.1668845421132141</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>224</v>
@@ -2218,19 +2218,19 @@
         <v>219061</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>195573</v>
+        <v>193125</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>248736</v>
+        <v>247325</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1109735383732231</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.09907510419370316</v>
+        <v>0.09783498005294335</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1260067768850497</v>
+        <v>0.1252916764924202</v>
       </c>
     </row>
     <row r="25">
@@ -2247,19 +2247,19 @@
         <v>117701</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>99930</v>
+        <v>97544</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>139364</v>
+        <v>138546</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1255762520042788</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1066163957354831</v>
+        <v>0.1040702844267155</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.148688738052543</v>
+        <v>0.1478161876894437</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>107</v>
@@ -2268,19 +2268,19 @@
         <v>109425</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>91109</v>
+        <v>89952</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>130157</v>
+        <v>131295</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1055504038872073</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.08788297992055023</v>
+        <v>0.08676697383278444</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1255488404863386</v>
+        <v>0.1266463060175827</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>229</v>
@@ -2289,19 +2289,19 @@
         <v>227125</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>201919</v>
+        <v>201169</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>258303</v>
+        <v>254427</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1150590389485899</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1022896397697265</v>
+        <v>0.1019098689633528</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1308530136105705</v>
+        <v>0.1288895629106922</v>
       </c>
     </row>
     <row r="26">
@@ -2318,19 +2318,19 @@
         <v>497867</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>465712</v>
+        <v>469850</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>527220</v>
+        <v>526394</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.531179040676353</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4968727562456724</v>
+        <v>0.501287986419093</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5624967630413412</v>
+        <v>0.5616152357842076</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>580</v>
@@ -2339,19 +2339,19 @@
         <v>610473</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>580258</v>
+        <v>575609</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>644856</v>
+        <v>642235</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5888595732656661</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5597141991839183</v>
+        <v>0.5552298524459117</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6220249314179067</v>
+        <v>0.6194968380211119</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1103</v>
@@ -2360,19 +2360,19 @@
         <v>1108340</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1067095</v>
+        <v>1064237</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1148904</v>
+        <v>1151934</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5614718126409156</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.540577748703386</v>
+        <v>0.5391298804740973</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5820214046830782</v>
+        <v>0.5835562397170917</v>
       </c>
     </row>
     <row r="27">
@@ -2464,19 +2464,19 @@
         <v>64218</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>48897</v>
+        <v>48484</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>81641</v>
+        <v>82602</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01965576459945256</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01496632401361257</v>
+        <v>0.01483988690032638</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02498848362775068</v>
+        <v>0.025282603188723</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>41</v>
@@ -2485,19 +2485,19 @@
         <v>46323</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>34047</v>
+        <v>33841</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>62925</v>
+        <v>62774</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01371602493417913</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01008120888551851</v>
+        <v>0.01002028289016419</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01863179846300369</v>
+        <v>0.01858709537703928</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>100</v>
@@ -2506,19 +2506,19 @@
         <v>110541</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>91512</v>
+        <v>89234</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>135607</v>
+        <v>132055</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01663665759335305</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01377276847973239</v>
+        <v>0.01342992701015211</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02040920812280397</v>
+        <v>0.01987455004349156</v>
       </c>
     </row>
     <row r="29">
@@ -2535,19 +2535,19 @@
         <v>804921</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>755506</v>
+        <v>753925</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>857733</v>
+        <v>859564</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2463691715345963</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.231244348576201</v>
+        <v>0.2307604164552835</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2625340534705338</v>
+        <v>0.2630942698854609</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>406</v>
@@ -2556,19 +2556,19 @@
         <v>415034</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>377300</v>
+        <v>378949</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>453628</v>
+        <v>453710</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1228896194484102</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1117166941632207</v>
+        <v>0.1122049383285864</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1343172495503767</v>
+        <v>0.1343413669549431</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1185</v>
@@ -2577,19 +2577,19 @@
         <v>1219954</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1164691</v>
+        <v>1153334</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1285752</v>
+        <v>1290526</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.18360581794976</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1752885873406677</v>
+        <v>0.1735792434895369</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1935085471289897</v>
+        <v>0.1942269594559304</v>
       </c>
     </row>
     <row r="30">
@@ -2606,19 +2606,19 @@
         <v>405964</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>368589</v>
+        <v>368905</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>444701</v>
+        <v>446936</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1242570605759575</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1128173582529955</v>
+        <v>0.1129138726875476</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1361135047113494</v>
+        <v>0.1367977496314648</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>698</v>
@@ -2627,19 +2627,19 @@
         <v>711522</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>666982</v>
+        <v>666233</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>758004</v>
+        <v>763110</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2106783156633959</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1974902194373786</v>
+        <v>0.1972687084383334</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2244415113147626</v>
+        <v>0.2259535479583213</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1098</v>
@@ -2648,19 +2648,19 @@
         <v>1117486</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1061546</v>
+        <v>1056218</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1179410</v>
+        <v>1176297</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1681840727707566</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1597650415276598</v>
+        <v>0.1589631466944889</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1775038417796653</v>
+        <v>0.17703532715874</v>
       </c>
     </row>
     <row r="31">
@@ -2677,19 +2677,19 @@
         <v>358559</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>324918</v>
+        <v>325075</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>395739</v>
+        <v>397899</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1097473683090473</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.09945061182759393</v>
+        <v>0.09949870280872915</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1211273833063263</v>
+        <v>0.1217885956665992</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>325</v>
@@ -2698,19 +2698,19 @@
         <v>331318</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>298287</v>
+        <v>299784</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>368897</v>
+        <v>366712</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.09810178492997515</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.08832147452947277</v>
+        <v>0.08876476066925101</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.109228714009086</v>
+        <v>0.1085818177153285</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>674</v>
@@ -2719,19 +2719,19 @@
         <v>689877</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>637526</v>
+        <v>644617</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>738301</v>
+        <v>738445</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1038280411413213</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.09594908726254174</v>
+        <v>0.09701623785837606</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1111159736428124</v>
+        <v>0.111137613385763</v>
       </c>
     </row>
     <row r="32">
@@ -2748,19 +2748,19 @@
         <v>1633470</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1570688</v>
+        <v>1575555</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>1684268</v>
+        <v>1695598</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.4999706349809463</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.4807542228270745</v>
+        <v>0.4822440145178471</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.5155186630894389</v>
+        <v>0.5189867715480917</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1825</v>
@@ -2769,19 +2769,19 @@
         <v>1873093</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1818141</v>
+        <v>1815329</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>1935829</v>
+        <v>1929833</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.5546142550240397</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.5383433259762956</v>
+        <v>0.5375105678841556</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.5731901464700152</v>
+        <v>0.5714148199067045</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>3443</v>
@@ -2790,19 +2790,19 @@
         <v>3506563</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>3418968</v>
+        <v>3414916</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>3582504</v>
+        <v>3591967</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.5277454105448091</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.5145622720252869</v>
+        <v>0.5139523394414441</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.5391747797693177</v>
+        <v>0.5405989594393545</v>
       </c>
     </row>
     <row r="33">
@@ -3134,19 +3134,19 @@
         <v>3952</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1029</v>
+        <v>973</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10826</v>
+        <v>9105</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.005626192801149732</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.001464987440138351</v>
+        <v>0.001385139194127685</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01541176793115888</v>
+        <v>0.01296162157344885</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8001</v>
+        <v>8477</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.00328318063471854</v>
@@ -3167,7 +3167,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01147852840420175</v>
+        <v>0.01216096054074957</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -3176,19 +3176,19 @@
         <v>6241</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2863</v>
+        <v>2362</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>13420</v>
+        <v>12883</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.004459188713531325</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.002045653340931715</v>
+        <v>0.001687847910731564</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.009589162229499683</v>
+        <v>0.00920531443137299</v>
       </c>
     </row>
     <row r="5">
@@ -3205,19 +3205,19 @@
         <v>114498</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>95553</v>
+        <v>96494</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>135346</v>
+        <v>135595</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.163003286220169</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.136032965208591</v>
+        <v>0.1373724632096541</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1926830925353216</v>
+        <v>0.1930371947138638</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>45</v>
@@ -3226,19 +3226,19 @@
         <v>48240</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>36353</v>
+        <v>35760</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>64164</v>
+        <v>65700</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.06920628884082099</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0521522628195839</v>
+        <v>0.05130153947939753</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09205083067039192</v>
+        <v>0.0942545911266939</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>156</v>
@@ -3247,19 +3247,19 @@
         <v>162738</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>137286</v>
+        <v>138123</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>186393</v>
+        <v>187398</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1162850143663951</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0980982331951567</v>
+        <v>0.09869639690087158</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1331873329389092</v>
+        <v>0.1339054966438568</v>
       </c>
     </row>
     <row r="6">
@@ -3276,19 +3276,19 @@
         <v>121678</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>102823</v>
+        <v>103318</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>143329</v>
+        <v>146285</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1732251369222575</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1463822187833331</v>
+        <v>0.1470871075521457</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.204048102525503</v>
+        <v>0.2082555955624825</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>157</v>
@@ -3297,19 +3297,19 @@
         <v>170149</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>149286</v>
+        <v>149276</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>194612</v>
+        <v>195882</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2440982477011565</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2141680011104467</v>
+        <v>0.2141533617912795</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2791935991313237</v>
+        <v>0.2810154924311098</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>275</v>
@@ -3318,19 +3318,19 @@
         <v>291827</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>261369</v>
+        <v>260579</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>323698</v>
+        <v>323249</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2085255127232025</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1867614788313278</v>
+        <v>0.1861976178694995</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.231299409177912</v>
+        <v>0.2309785224714724</v>
       </c>
     </row>
     <row r="7">
@@ -3347,19 +3347,19 @@
         <v>56490</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>42665</v>
+        <v>42561</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>70438</v>
+        <v>72268</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08042126809755674</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0607387705549222</v>
+        <v>0.06059120373041085</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1002772405249845</v>
+        <v>0.1028831148138009</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>58</v>
@@ -3368,19 +3368,19 @@
         <v>60003</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>45424</v>
+        <v>46756</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>75498</v>
+        <v>75677</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08608114994260765</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06516638347062285</v>
+        <v>0.06707641092019635</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1083104201592819</v>
+        <v>0.108567314067757</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>113</v>
@@ -3389,19 +3389,19 @@
         <v>116493</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>96479</v>
+        <v>96545</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>138043</v>
+        <v>139645</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08324033380419041</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06893918392817622</v>
+        <v>0.06898632900519797</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09863875018670427</v>
+        <v>0.09978368271023473</v>
       </c>
     </row>
     <row r="8">
@@ -3418,19 +3418,19 @@
         <v>405810</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>379440</v>
+        <v>380252</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>432366</v>
+        <v>432743</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.577724115958867</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5401841514811818</v>
+        <v>0.5413401693324142</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6155301569149354</v>
+        <v>0.6160677649342855</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>388</v>
@@ -3439,19 +3439,19 @@
         <v>416370</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>389795</v>
+        <v>386858</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>440684</v>
+        <v>441425</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5973311328806963</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5592069599076019</v>
+        <v>0.5549934046301791</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6322134328590509</v>
+        <v>0.633275355352899</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>773</v>
@@ -3460,19 +3460,19 @@
         <v>822179</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>782013</v>
+        <v>784415</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>859036</v>
+        <v>859901</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5874899503926807</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.558788801732124</v>
+        <v>0.5605052553274028</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6138261678931206</v>
+        <v>0.6144444341331999</v>
       </c>
     </row>
     <row r="9">
@@ -3564,19 +3564,19 @@
         <v>19301</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10674</v>
+        <v>11979</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>29905</v>
+        <v>34420</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0189807072588529</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01049687697406707</v>
+        <v>0.01177961018087668</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02940849176335403</v>
+        <v>0.03384805454547949</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -3585,19 +3585,19 @@
         <v>3147</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8805</v>
+        <v>9440</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.003058439283788311</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0009429646931313665</v>
+        <v>0.0009407725270623437</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.00855658965352764</v>
+        <v>0.009173955546970687</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>18</v>
@@ -3606,19 +3606,19 @@
         <v>22448</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>13759</v>
+        <v>14179</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>34981</v>
+        <v>36644</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01097242649378474</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.006725426836805919</v>
+        <v>0.006930479404892833</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01709818941472547</v>
+        <v>0.01791086361994968</v>
       </c>
     </row>
     <row r="11">
@@ -3635,19 +3635,19 @@
         <v>149650</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>125626</v>
+        <v>124689</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>176992</v>
+        <v>175026</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1471651262187509</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1235395217804023</v>
+        <v>0.1226179905783407</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1740528944384473</v>
+        <v>0.1721194686325436</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>68</v>
@@ -3656,19 +3656,19 @@
         <v>75511</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>59371</v>
+        <v>59909</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>95778</v>
+        <v>96363</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.0733823108258209</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.05769778396169476</v>
+        <v>0.05822059684575348</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.09307865981522188</v>
+        <v>0.09364696172961827</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>205</v>
@@ -3677,19 +3677,19 @@
         <v>225161</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>195853</v>
+        <v>197265</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>254235</v>
+        <v>255118</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1100552432404512</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.09572993852494684</v>
+        <v>0.09642015091513911</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1242661565363655</v>
+        <v>0.1246977336207714</v>
       </c>
     </row>
     <row r="12">
@@ -3706,19 +3706,19 @@
         <v>148148</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>125667</v>
+        <v>126064</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>172493</v>
+        <v>171061</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1456876503654778</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1235799688035562</v>
+        <v>0.1239707299049821</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.169628215579192</v>
+        <v>0.1682199475665435</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>227</v>
@@ -3727,19 +3727,19 @@
         <v>247527</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>220079</v>
+        <v>220322</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>279228</v>
+        <v>276064</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2405498138642572</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2138756313932937</v>
+        <v>0.214111933539452</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2713574644202235</v>
+        <v>0.2682825147314843</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>360</v>
@@ -3748,19 +3748,19 @@
         <v>395675</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>359161</v>
+        <v>361987</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>435357</v>
+        <v>430746</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1933996245936307</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1755521913145435</v>
+        <v>0.1769337887065502</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2127958397129008</v>
+        <v>0.21054206448678</v>
       </c>
     </row>
     <row r="13">
@@ -3777,19 +3777,19 @@
         <v>106446</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>87462</v>
+        <v>89591</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>127179</v>
+        <v>130515</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1046780993293573</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08600922594727085</v>
+        <v>0.08810315182094869</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1250669374548563</v>
+        <v>0.1283478977806062</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>77</v>
@@ -3798,19 +3798,19 @@
         <v>88400</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>70432</v>
+        <v>71572</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>108758</v>
+        <v>108312</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08590844851295625</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06844663831193964</v>
+        <v>0.0695548645988481</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1056924745455863</v>
+        <v>0.105258602889784</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>178</v>
@@ -3819,19 +3819,19 @@
         <v>194846</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>169625</v>
+        <v>168109</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>223095</v>
+        <v>224757</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09523769587455862</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08291022888940303</v>
+        <v>0.08216918832245385</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1090456163189987</v>
+        <v>0.1098579558082035</v>
       </c>
     </row>
     <row r="14">
@@ -3848,19 +3848,19 @@
         <v>593342</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>557534</v>
+        <v>560307</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>625221</v>
+        <v>623771</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.583488416827561</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5482747687645736</v>
+        <v>0.5510015305209941</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6148374390701359</v>
+        <v>0.6134115574374381</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>562</v>
@@ -3869,19 +3869,19 @@
         <v>614419</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>581777</v>
+        <v>580783</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>646763</v>
+        <v>645149</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5971009875131773</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5653785535836687</v>
+        <v>0.5644132498797466</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6285332742549946</v>
+        <v>0.6269643539440229</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1111</v>
@@ -3890,19 +3890,19 @@
         <v>1207761</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1159466</v>
+        <v>1161679</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1252780</v>
+        <v>1252142</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5903350097975748</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5667293023472552</v>
+        <v>0.567810955320874</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6123397263500447</v>
+        <v>0.6120274826266333</v>
       </c>
     </row>
     <row r="15">
@@ -3994,19 +3994,19 @@
         <v>7387</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3178</v>
+        <v>3282</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>15090</v>
+        <v>14731</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.00975073136946694</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.004194976418230092</v>
+        <v>0.004332548751454902</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01991813303903342</v>
+        <v>0.01944368833153043</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>9</v>
@@ -4015,19 +4015,19 @@
         <v>11411</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5462</v>
+        <v>5344</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>21495</v>
+        <v>21610</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01468264363875398</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.00702862700050562</v>
+        <v>0.006875697931770707</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02765801762053572</v>
+        <v>0.02780621549032395</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>16</v>
@@ -4036,19 +4036,19 @@
         <v>18798</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>10734</v>
+        <v>11126</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>30061</v>
+        <v>30125</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01224809956622418</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.006993515045586683</v>
+        <v>0.007249492404704003</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01958621049716316</v>
+        <v>0.01962803330924869</v>
       </c>
     </row>
     <row r="17">
@@ -4065,19 +4065,19 @@
         <v>155807</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>135058</v>
+        <v>132360</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>181270</v>
+        <v>180649</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2056522870160997</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.178264827561899</v>
+        <v>0.1747047999285514</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2392611723068624</v>
+        <v>0.2384422953037242</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>65</v>
@@ -4086,19 +4086,19 @@
         <v>72278</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>57156</v>
+        <v>57384</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>90778</v>
+        <v>93251</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.09300056982394747</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.07354273908654353</v>
+        <v>0.07383628321484535</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1168051902260201</v>
+        <v>0.1199874671493784</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>211</v>
@@ -4107,19 +4107,19 @@
         <v>228085</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>196775</v>
+        <v>201916</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>255705</v>
+        <v>259943</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1486089333502728</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1282094359532832</v>
+        <v>0.1315589967311228</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1666050599704117</v>
+        <v>0.1693661919616477</v>
       </c>
     </row>
     <row r="18">
@@ -4136,19 +4136,19 @@
         <v>92787</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>74459</v>
+        <v>73421</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>111534</v>
+        <v>114591</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1224709716943819</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.09828022767777091</v>
+        <v>0.09690903167333931</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1472159957228192</v>
+        <v>0.1512504225826304</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>154</v>
@@ -4157,19 +4157,19 @@
         <v>164988</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>142654</v>
+        <v>139993</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>190497</v>
+        <v>188632</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2122917339025299</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.183555236076037</v>
+        <v>0.1801312996766304</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2451148743717876</v>
+        <v>0.2427149865533369</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>239</v>
@@ -4178,19 +4178,19 @@
         <v>257774</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>227833</v>
+        <v>226642</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>290956</v>
+        <v>289492</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1679534342158716</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1484450159659093</v>
+        <v>0.1476690604923376</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1895732637161653</v>
+        <v>0.1886189642852637</v>
       </c>
     </row>
     <row r="19">
@@ -4207,19 +4207,19 @@
         <v>96341</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>78941</v>
+        <v>78296</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>118070</v>
+        <v>118161</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.127162105898061</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1041953341248699</v>
+        <v>0.1033437832386736</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1558429910254393</v>
+        <v>0.1559626629355853</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>80</v>
@@ -4228,19 +4228,19 @@
         <v>90419</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>71659</v>
+        <v>72322</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>110050</v>
+        <v>112425</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1163436352100023</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0922046653386511</v>
+        <v>0.09305745589319635</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1416026257809235</v>
+        <v>0.1446581171353035</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>165</v>
@@ -4249,19 +4249,19 @@
         <v>186760</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>161979</v>
+        <v>159048</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>215668</v>
+        <v>215212</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1216839661504913</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1055377433041044</v>
+        <v>0.1036277629599904</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1405186171681598</v>
+        <v>0.1402219373901816</v>
       </c>
     </row>
     <row r="20">
@@ -4278,19 +4278,19 @@
         <v>405301</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>376492</v>
+        <v>377001</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>436884</v>
+        <v>432329</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5349639040219905</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4969387092331909</v>
+        <v>0.497610441926105</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5766506987425769</v>
+        <v>0.5706384867524273</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>397</v>
@@ -4299,19 +4299,19 @@
         <v>438079</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>409220</v>
+        <v>407153</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>463451</v>
+        <v>465275</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5636814174247663</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5265481768414645</v>
+        <v>0.5238893044289799</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.596328491293825</v>
+        <v>0.5986758956153562</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>763</v>
@@ -4320,19 +4320,19 @@
         <v>843379</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>805177</v>
+        <v>801062</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>883718</v>
+        <v>884683</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5495055667171401</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5246145122204174</v>
+        <v>0.5219336770319241</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5757879336575072</v>
+        <v>0.5764171708708141</v>
       </c>
     </row>
     <row r="21">
@@ -4424,19 +4424,19 @@
         <v>19634</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>11541</v>
+        <v>11203</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>32274</v>
+        <v>31727</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02071664579133293</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01217701076767996</v>
+        <v>0.01182065350457105</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03405404419124649</v>
+        <v>0.03347653538701595</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>13</v>
@@ -4445,19 +4445,19 @@
         <v>14354</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>7698</v>
+        <v>7663</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>25982</v>
+        <v>25271</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01364541064796001</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.007318083496041101</v>
+        <v>0.007285294911410311</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02469997417526847</v>
+        <v>0.02402398684962554</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>29</v>
@@ -4466,19 +4466,19 @@
         <v>33988</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>22424</v>
+        <v>23510</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>49746</v>
+        <v>50316</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01699685724806527</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01121384193644915</v>
+        <v>0.01175719225613485</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02487737220115969</v>
+        <v>0.02516233438040605</v>
       </c>
     </row>
     <row r="23">
@@ -4495,19 +4495,19 @@
         <v>174978</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>150835</v>
+        <v>152005</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>198567</v>
+        <v>199577</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1846266082526197</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1591522545267769</v>
+        <v>0.1603870324534177</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2095162600340621</v>
+        <v>0.2105819479632538</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>74</v>
@@ -4516,19 +4516,19 @@
         <v>76892</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>60974</v>
+        <v>60080</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>94828</v>
+        <v>94304</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.07309826140793571</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.05796533974136441</v>
+        <v>0.05711550976548171</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.09014911220261222</v>
+        <v>0.08965127671271583</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>248</v>
@@ -4537,19 +4537,19 @@
         <v>251870</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>223191</v>
+        <v>223782</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>282453</v>
+        <v>284889</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1259576687489968</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1116156314024966</v>
+        <v>0.1119110449293106</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1412517068102739</v>
+        <v>0.1424702561116668</v>
       </c>
     </row>
     <row r="24">
@@ -4566,19 +4566,19 @@
         <v>159451</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>137266</v>
+        <v>133928</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>186351</v>
+        <v>183718</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1682433199942223</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1448356983871603</v>
+        <v>0.1413133024064664</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1966270072200386</v>
+        <v>0.1938491516912946</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>251</v>
@@ -4587,19 +4587,19 @@
         <v>262051</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>233566</v>
+        <v>235774</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>292702</v>
+        <v>291766</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2491217443997705</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.222041410174187</v>
+        <v>0.2241410417877292</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2782600327114955</v>
+        <v>0.2773703560410381</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>400</v>
@@ -4608,19 +4608,19 @@
         <v>421502</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>387689</v>
+        <v>385694</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>459118</v>
+        <v>463091</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2107890182211087</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1938795329853674</v>
+        <v>0.1928816688495113</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2296002093942176</v>
+        <v>0.2315870895151848</v>
       </c>
     </row>
     <row r="25">
@@ -4637,19 +4637,19 @@
         <v>86732</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>70574</v>
+        <v>68735</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>105363</v>
+        <v>105587</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.09151500821635043</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.07446591020831292</v>
+        <v>0.07252541540258688</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1111724914901685</v>
+        <v>0.1114089298712607</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>86</v>
@@ -4658,19 +4658,19 @@
         <v>90428</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>72731</v>
+        <v>73487</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>109932</v>
+        <v>109045</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.08596581755060392</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06914252335443016</v>
+        <v>0.06986102561094953</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1045080854768606</v>
+        <v>0.1036646313466183</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>174</v>
@@ -4679,19 +4679,19 @@
         <v>177160</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>152125</v>
+        <v>153206</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>201747</v>
+        <v>204172</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.08859588370071372</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.07607610481053614</v>
+        <v>0.07661700088680511</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.10089190977944</v>
+        <v>0.1021045126852685</v>
       </c>
     </row>
     <row r="26">
@@ -4708,19 +4708,19 @@
         <v>506944</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>473274</v>
+        <v>476627</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>537145</v>
+        <v>541994</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5348984177454746</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4993717063593563</v>
+        <v>0.5029098503012186</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5667642056360137</v>
+        <v>0.5718806154339438</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>579</v>
@@ -4729,19 +4729,19 @@
         <v>608176</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>572869</v>
+        <v>573788</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>639187</v>
+        <v>640814</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5781687659937299</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5446036025598247</v>
+        <v>0.5454771436734759</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6076498511927044</v>
+        <v>0.6091960131196137</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1062</v>
@@ -4750,19 +4750,19 @@
         <v>1115120</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1068748</v>
+        <v>1070742</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1161573</v>
+        <v>1161256</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5576605720811155</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5344701226845835</v>
+        <v>0.5354675210268496</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5808908427588414</v>
+        <v>0.5807325852863476</v>
       </c>
     </row>
     <row r="27">
@@ -4854,19 +4854,19 @@
         <v>50275</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>36257</v>
+        <v>36121</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>68453</v>
+        <v>68505</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01468009515744339</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01058697856759843</v>
+        <v>0.01054724675250419</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01998813088270426</v>
+        <v>0.02000332412987525</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>27</v>
@@ -4875,19 +4875,19 @@
         <v>31200</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>21002</v>
+        <v>19963</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>43852</v>
+        <v>45452</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.008776131436272006</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.005907421307619233</v>
+        <v>0.005615365848202667</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01233479011086433</v>
+        <v>0.0127849457803621</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>69</v>
@@ -4896,19 +4896,19 @@
         <v>81475</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>63116</v>
+        <v>63732</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>105236</v>
+        <v>102778</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01167294173987711</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.009042632786071451</v>
+        <v>0.009130923957232806</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01507726492375201</v>
+        <v>0.01472499285690144</v>
       </c>
     </row>
     <row r="29">
@@ -4925,19 +4925,19 @@
         <v>594933</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>549378</v>
+        <v>549998</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>641066</v>
+        <v>643362</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1737194812399697</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1604175110345507</v>
+        <v>0.1605983446289338</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1871901395530547</v>
+        <v>0.187860697931781</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>252</v>
@@ -4946,19 +4946,19 @@
         <v>272921</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>241677</v>
+        <v>240198</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>307399</v>
+        <v>308552</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.07676815529084884</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.06797990647898823</v>
+        <v>0.06756379352865911</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.08646639778866186</v>
+        <v>0.08679074641895196</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>820</v>
@@ -4967,19 +4967,19 @@
         <v>867854</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>813309</v>
+        <v>811354</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>931822</v>
+        <v>925860</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1243378242829658</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.116523101858668</v>
+        <v>0.1162430752203384</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1335025297439664</v>
+        <v>0.1326483130626145</v>
       </c>
     </row>
     <row r="30">
@@ -4996,19 +4996,19 @@
         <v>522064</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>478028</v>
+        <v>482296</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>566889</v>
+        <v>567440</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1524417161653699</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1395832942745794</v>
+        <v>0.1408297199350906</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1655305466168705</v>
+        <v>0.1656913949125658</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>789</v>
@@ -5017,19 +5017,19 @@
         <v>844714</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>791187</v>
+        <v>794945</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>897471</v>
+        <v>898908</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2376044390022053</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2225481022580565</v>
+        <v>0.2236051745263989</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2524439710502164</v>
+        <v>0.2528483039566619</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1274</v>
@@ -5038,19 +5038,19 @@
         <v>1366778</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1301435</v>
+        <v>1299702</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1438437</v>
+        <v>1439508</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1958189090349135</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1864571076253285</v>
+        <v>0.1862088968682696</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2060854573289307</v>
+        <v>0.2062388937824109</v>
       </c>
     </row>
     <row r="31">
@@ -5067,19 +5067,19 @@
         <v>346009</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>310961</v>
+        <v>311096</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>383261</v>
+        <v>385462</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1010341216212484</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.09079994237791983</v>
+        <v>0.09083946731216619</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1119116575440867</v>
+        <v>0.1125543147837112</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>301</v>
@@ -5088,19 +5088,19 @@
         <v>329250</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>293815</v>
+        <v>296069</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>371953</v>
+        <v>368257</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.09261261197623852</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.08264536689597088</v>
+        <v>0.08327929074483013</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1046242166128744</v>
+        <v>0.1035847156898174</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>630</v>
@@ -5109,19 +5109,19 @@
         <v>675259</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>623457</v>
+        <v>623726</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>731245</v>
+        <v>737357</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.09674466919469553</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.08932296186803987</v>
+        <v>0.08936148706736551</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1047658394018066</v>
+        <v>0.105641403709938</v>
       </c>
     </row>
     <row r="32">
@@ -5138,19 +5138,19 @@
         <v>1911397</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1846551</v>
+        <v>1854817</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>1970738</v>
+        <v>1970165</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.5581245858159686</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.5391897295931622</v>
+        <v>0.5416033048851563</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.5754521468509229</v>
+        <v>0.5752848222344719</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1926</v>
@@ -5159,19 +5159,19 @@
         <v>2077044</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2016849</v>
+        <v>2016765</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>2133519</v>
+        <v>2134985</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.5842386622944353</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.5673067635134812</v>
+        <v>0.5672830820046831</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.6001243468549194</v>
+        <v>0.6005366340675085</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>3709</v>
@@ -5180,19 +5180,19 @@
         <v>3988441</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>3894183</v>
+        <v>3898170</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>4070578</v>
+        <v>4068641</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.571425655747548</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.5579212647248321</v>
+        <v>0.5584925844278908</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.5831934487980746</v>
+        <v>0.58291594036403</v>
       </c>
     </row>
     <row r="33">
@@ -5524,19 +5524,19 @@
         <v>16324</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9025</v>
+        <v>8938</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>25033</v>
+        <v>27068</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02419067566848255</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01337503395015297</v>
+        <v>0.0132455961647257</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03709638672165429</v>
+        <v>0.04011253252228677</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>14</v>
@@ -5545,19 +5545,19 @@
         <v>13907</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7276</v>
+        <v>8305</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>23152</v>
+        <v>22722</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.020812767732189</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01088861188564225</v>
+        <v>0.01242922543309031</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03464961473383164</v>
+        <v>0.03400547400553865</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>29</v>
@@ -5566,19 +5566,19 @@
         <v>30230</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>21264</v>
+        <v>20642</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>43166</v>
+        <v>41952</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02251005053990924</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01583330601081271</v>
+        <v>0.01537063326084666</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.032141667054998</v>
+        <v>0.03123826432428022</v>
       </c>
     </row>
     <row r="5">
@@ -5595,19 +5595,19 @@
         <v>106378</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>88062</v>
+        <v>87267</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>125180</v>
+        <v>125492</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.157643216239385</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1305016143810813</v>
+        <v>0.1293225507159381</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1855066873320649</v>
+        <v>0.1859687121713941</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>53</v>
@@ -5616,19 +5616,19 @@
         <v>53009</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>40412</v>
+        <v>40594</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>67072</v>
+        <v>68537</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07933313050326252</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06048165729445504</v>
+        <v>0.06075398985981097</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.100381232495634</v>
+        <v>0.1025729740895643</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>151</v>
@@ -5637,19 +5637,19 @@
         <v>159386</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>136568</v>
+        <v>135034</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>184833</v>
+        <v>184152</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1186812609726975</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1016907828129555</v>
+        <v>0.1005484832097009</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1376294992718495</v>
+        <v>0.1371224498905742</v>
       </c>
     </row>
     <row r="6">
@@ -5666,19 +5666,19 @@
         <v>65068</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>49579</v>
+        <v>51489</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>81084</v>
+        <v>81859</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.09642604015162631</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.0734715007758513</v>
+        <v>0.07630263709472654</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1201597192278549</v>
+        <v>0.1213089326094046</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>82</v>
@@ -5687,19 +5687,19 @@
         <v>83352</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>67398</v>
+        <v>67761</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>101932</v>
+        <v>101303</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1247451542870555</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1008681297440971</v>
+        <v>0.1014117188439112</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1525525046074153</v>
+        <v>0.1516115526750959</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>145</v>
@@ -5708,19 +5708,19 @@
         <v>148420</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>125117</v>
+        <v>125547</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>170548</v>
+        <v>174185</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1105157713499138</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.09316415019905754</v>
+        <v>0.09348373454008486</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1269927898601282</v>
+        <v>0.1297005176958495</v>
       </c>
     </row>
     <row r="7">
@@ -5737,19 +5737,19 @@
         <v>21895</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>13985</v>
+        <v>13813</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>34165</v>
+        <v>32718</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03244607941234214</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02072478940298803</v>
+        <v>0.0204702153747093</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05062974232265557</v>
+        <v>0.04848544970398511</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>39</v>
@@ -5758,19 +5758,19 @@
         <v>37838</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>26980</v>
+        <v>28170</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>51403</v>
+        <v>51062</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05662847016308032</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04037926492705171</v>
+        <v>0.04215916836696623</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07693068672564757</v>
+        <v>0.07642010082100749</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>59</v>
@@ -5779,19 +5779,19 @@
         <v>59732</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>46055</v>
+        <v>45413</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>76248</v>
+        <v>76163</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04447764875382747</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03429324281438289</v>
+        <v>0.03381485759887368</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0567751843982247</v>
+        <v>0.05671200152312594</v>
       </c>
     </row>
     <row r="8">
@@ -5808,19 +5808,19 @@
         <v>465136</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>442821</v>
+        <v>441158</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>489522</v>
+        <v>488988</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.689293988528164</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6562254320298324</v>
+        <v>0.6537606122460413</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7254331354223958</v>
+        <v>0.7246415747522531</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>473</v>
@@ -5829,19 +5829,19 @@
         <v>480072</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>454993</v>
+        <v>455304</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>501013</v>
+        <v>502604</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7184804773144127</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6809465314343299</v>
+        <v>0.6814129414488054</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7498210303251452</v>
+        <v>0.7522020626134295</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>929</v>
@@ -5850,19 +5850,19 @@
         <v>945208</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>910984</v>
+        <v>912186</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>977889</v>
+        <v>978347</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.703815268383652</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6783314544088958</v>
+        <v>0.6792269727564135</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.728150005790698</v>
+        <v>0.7284915499644452</v>
       </c>
     </row>
     <row r="9">
@@ -5954,19 +5954,19 @@
         <v>16621</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10283</v>
+        <v>9886</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>27691</v>
+        <v>28014</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0162734426393624</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01006833346025917</v>
+        <v>0.009679136710671275</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02711175917335437</v>
+        <v>0.02742855557714943</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>8</v>
@@ -5975,19 +5975,19 @@
         <v>8975</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4074</v>
+        <v>4394</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>18864</v>
+        <v>18923</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.008626564457287671</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.003916247253452186</v>
+        <v>0.004223507818416491</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01813200123263115</v>
+        <v>0.01818848290192578</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>24</v>
@@ -5996,19 +5996,19 @@
         <v>25596</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>16515</v>
+        <v>16928</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>37640</v>
+        <v>37321</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01241476438331888</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.008010145107794903</v>
+        <v>0.008210632757352178</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0182567806693079</v>
+        <v>0.01810213015762448</v>
       </c>
     </row>
     <row r="11">
@@ -6025,19 +6025,19 @@
         <v>162468</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>139129</v>
+        <v>138653</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>186550</v>
+        <v>187540</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1590706439106631</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1362196968000789</v>
+        <v>0.1357544156529189</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1826492094480665</v>
+        <v>0.1836191081126656</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>71</v>
@@ -6046,19 +6046,19 @@
         <v>74267</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>59854</v>
+        <v>58760</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>94072</v>
+        <v>92741</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.07138647407421386</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.05753245772491805</v>
+        <v>0.05648077776072106</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.09042279689733927</v>
+        <v>0.08914350446096726</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>219</v>
@@ -6067,19 +6067,19 @@
         <v>236735</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>207750</v>
+        <v>205445</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>267646</v>
+        <v>267930</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1148244833872408</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1007659034331017</v>
+        <v>0.09964797911853451</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1298175148267012</v>
+        <v>0.129955097700224</v>
       </c>
     </row>
     <row r="12">
@@ -6096,19 +6096,19 @@
         <v>103790</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>84851</v>
+        <v>85521</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>125394</v>
+        <v>125269</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.101620149579553</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.08307651707656474</v>
+        <v>0.08373295778945945</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1227726266022944</v>
+        <v>0.1226496383695098</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>159</v>
@@ -6117,19 +6117,19 @@
         <v>166006</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>140564</v>
+        <v>145159</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>189986</v>
+        <v>190800</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.159566585067262</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.135111329646925</v>
+        <v>0.1395283048562148</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1826160685559715</v>
+        <v>0.1833981669688731</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>254</v>
@@ -6138,19 +6138,19 @@
         <v>269796</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>240879</v>
+        <v>240922</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>303425</v>
+        <v>302295</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1308604023085413</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1168345569582033</v>
+        <v>0.1168551084964362</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1471711841245394</v>
+        <v>0.1466231957046081</v>
       </c>
     </row>
     <row r="13">
@@ -6167,19 +6167,19 @@
         <v>64423</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>49663</v>
+        <v>50292</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>80966</v>
+        <v>81238</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06307586969865624</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04862490623668451</v>
+        <v>0.04924073058349884</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07927347676089989</v>
+        <v>0.07953943076995404</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>74</v>
@@ -6188,19 +6188,19 @@
         <v>78080</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>63313</v>
+        <v>62900</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>96021</v>
+        <v>97870</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07505091572654866</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0608570024269376</v>
+        <v>0.06045973431387366</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09229579510807795</v>
+        <v>0.09407391354836385</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>133</v>
@@ -6209,19 +6209,19 @@
         <v>142503</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>117213</v>
+        <v>118656</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>167561</v>
+        <v>167707</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06911857740534706</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05685245413539643</v>
+        <v>0.05755229268443939</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08127264034530739</v>
+        <v>0.08134364364308065</v>
       </c>
     </row>
     <row r="14">
@@ -6238,19 +6238,19 @@
         <v>674053</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>644507</v>
+        <v>644560</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>705576</v>
+        <v>703336</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6599598941717653</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6310309693606815</v>
+        <v>0.631083692795806</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6908234854380813</v>
+        <v>0.6886302327583158</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>663</v>
@@ -6259,19 +6259,19 @@
         <v>713029</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>681499</v>
+        <v>680701</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>745378</v>
+        <v>740154</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6853694606746878</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6550627373375812</v>
+        <v>0.6542960561511466</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7164639751580657</v>
+        <v>0.7114423052718463</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1295</v>
@@ -6280,19 +6280,19 @@
         <v>1387082</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1340998</v>
+        <v>1341072</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1428256</v>
+        <v>1428255</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6727817725155519</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6504291113459062</v>
+        <v>0.6504650710845418</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6927521943978248</v>
+        <v>0.6927519849400718</v>
       </c>
     </row>
     <row r="15">
@@ -6384,19 +6384,19 @@
         <v>3229</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8648</v>
+        <v>8760</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.004287854444602757</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.001340765548759359</v>
+        <v>0.001336105059266561</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01148567996124894</v>
+        <v>0.01163384226015971</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>5</v>
@@ -6405,19 +6405,19 @@
         <v>5190</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1963</v>
+        <v>1967</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>12428</v>
+        <v>12431</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.006620247438581721</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.002504057678139509</v>
+        <v>0.002509260742596739</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01585208126499664</v>
+        <v>0.01585474423864864</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>8</v>
@@ -6426,19 +6426,19 @@
         <v>8419</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4063</v>
+        <v>3908</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>16619</v>
+        <v>15134</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.005477609247440349</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.002643460187137646</v>
+        <v>0.002542659718906753</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01081258283346881</v>
+        <v>0.009846586276043592</v>
       </c>
     </row>
     <row r="17">
@@ -6455,19 +6455,19 @@
         <v>142379</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>122466</v>
+        <v>122324</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>166811</v>
+        <v>167518</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1890884763685485</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1626420930870222</v>
+        <v>0.1624532475829872</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2215347994819326</v>
+        <v>0.2224744678021043</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>75</v>
@@ -6476,19 +6476,19 @@
         <v>79306</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>62261</v>
+        <v>63270</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>97749</v>
+        <v>96325</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.101152037783173</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.07941237299504927</v>
+        <v>0.08069947878608755</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1246751397106905</v>
+        <v>0.1228593055135128</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>205</v>
@@ -6497,19 +6497,19 @@
         <v>221685</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>195016</v>
+        <v>192383</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>250484</v>
+        <v>250452</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1442320561934469</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1268803685112872</v>
+        <v>0.1251674478495435</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1629689999871949</v>
+        <v>0.1629483041661924</v>
       </c>
     </row>
     <row r="18">
@@ -6526,19 +6526,19 @@
         <v>114202</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>93694</v>
+        <v>95378</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>134808</v>
+        <v>135576</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1516666955568107</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1244316771303596</v>
+        <v>0.1266676234297086</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1790339939088665</v>
+        <v>0.1800538008814407</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>120</v>
@@ -6547,19 +6547,19 @@
         <v>129735</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>108912</v>
+        <v>109525</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>151868</v>
+        <v>154561</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1654726333228763</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1389141582568436</v>
+        <v>0.1396955188675912</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1937032258035721</v>
+        <v>0.1971378206979721</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>225</v>
@@ -6568,19 +6568,19 @@
         <v>243937</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>215550</v>
+        <v>216380</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>275610</v>
+        <v>275018</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1587091111391144</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1402402906772055</v>
+        <v>0.1407805671433461</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1793162613307312</v>
+        <v>0.1789312947949625</v>
       </c>
     </row>
     <row r="19">
@@ -6597,19 +6597,19 @@
         <v>75587</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>59073</v>
+        <v>58631</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>93439</v>
+        <v>92844</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1003837967401963</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.07845211101234498</v>
+        <v>0.07786510376152157</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.12409255383542</v>
+        <v>0.1233023778016578</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>81</v>
@@ -6618,19 +6618,19 @@
         <v>83229</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>67468</v>
+        <v>68395</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>103663</v>
+        <v>103658</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1061554955214668</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.08605296722676041</v>
+        <v>0.08723502617740164</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1322190692776973</v>
+        <v>0.1322124259392194</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>152</v>
@@ -6639,19 +6639,19 @@
         <v>158815</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>137662</v>
+        <v>134222</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>184649</v>
+        <v>184320</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1033279431011549</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08956503260224512</v>
+        <v>0.08732678268311646</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1201356789268559</v>
+        <v>0.1199215611341368</v>
       </c>
     </row>
     <row r="20">
@@ -6668,19 +6668,19 @@
         <v>417581</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>386698</v>
+        <v>386448</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>443777</v>
+        <v>445085</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5545731768898418</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5135583827374881</v>
+        <v>0.5132267333773227</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5893631949140203</v>
+        <v>0.5911004280110165</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>454</v>
@@ -6689,19 +6689,19 @@
         <v>486566</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>457072</v>
+        <v>461340</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>513128</v>
+        <v>515950</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6205995859339023</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5829810388617256</v>
+        <v>0.5884248174411679</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6544786435061573</v>
+        <v>0.6580775535641165</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>835</v>
@@ -6710,19 +6710,19 @@
         <v>904148</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>862287</v>
+        <v>861846</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>942951</v>
+        <v>943339</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5882532803188435</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5610179635475838</v>
+        <v>0.5607313214962861</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6134995108685125</v>
+        <v>0.6137515671104619</v>
       </c>
     </row>
     <row r="21">
@@ -6814,19 +6814,19 @@
         <v>9757</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4567</v>
+        <v>4959</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>17838</v>
+        <v>18113</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01041949831387752</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.004877094135259562</v>
+        <v>0.005295381311585176</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01904960538669595</v>
+        <v>0.01934354164563817</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>10</v>
@@ -6835,19 +6835,19 @@
         <v>10184</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>4999</v>
+        <v>5163</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>18052</v>
+        <v>18693</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.009802503421431239</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.004812063468723478</v>
+        <v>0.004969494906062923</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01737623021418879</v>
+        <v>0.01799347566823524</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>20</v>
@@ -6856,19 +6856,19 @@
         <v>19940</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>12788</v>
+        <v>12872</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>30205</v>
+        <v>30464</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01009499383343958</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.00647404914731824</v>
+        <v>0.006516356374104549</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01529136977301471</v>
+        <v>0.01542264654373578</v>
       </c>
     </row>
     <row r="23">
@@ -6885,19 +6885,19 @@
         <v>184355</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>159940</v>
+        <v>161364</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>209510</v>
+        <v>211214</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1968778891383475</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1708050420126967</v>
+        <v>0.1723256480781898</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2237418159633126</v>
+        <v>0.2255611159355334</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>119</v>
@@ -6906,19 +6906,19 @@
         <v>126457</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>107086</v>
+        <v>107407</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>149623</v>
+        <v>148532</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1217238095215093</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1030778021163194</v>
+        <v>0.1033867153617791</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1440227148298979</v>
+        <v>0.1429728723783154</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>296</v>
@@ -6927,19 +6927,19 @@
         <v>310812</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>279532</v>
+        <v>280383</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>347103</v>
+        <v>342971</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1573510861494935</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1415156595586769</v>
+        <v>0.141946487302506</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1757240555717119</v>
+        <v>0.1736322063966262</v>
       </c>
     </row>
     <row r="24">
@@ -6956,19 +6956,19 @@
         <v>101112</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>83498</v>
+        <v>83999</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>121311</v>
+        <v>122349</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1079798948456202</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.08917002410610851</v>
+        <v>0.08970470721321401</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.129551963345696</v>
+        <v>0.1306600933262671</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>135</v>
@@ -6977,19 +6977,19 @@
         <v>147916</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>123930</v>
+        <v>125071</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>171062</v>
+        <v>172424</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1423796461173852</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1192918918199541</v>
+        <v>0.1203902824152966</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1646598732997859</v>
+        <v>0.1659702798764775</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>232</v>
@@ -6998,19 +6998,19 @@
         <v>249027</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>218660</v>
+        <v>220889</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>280871</v>
+        <v>279501</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1260722219463833</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1106986474884098</v>
+        <v>0.1118269218124054</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1421933544739512</v>
+        <v>0.1414997686478724</v>
       </c>
     </row>
     <row r="25">
@@ -7027,19 +7027,19 @@
         <v>68758</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>53989</v>
+        <v>54123</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>86738</v>
+        <v>86192</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.07342833762567139</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05765643745080811</v>
+        <v>0.05779975915432039</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.09262967420401623</v>
+        <v>0.09204725307359468</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>84</v>
@@ -7048,19 +7048,19 @@
         <v>85313</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>69296</v>
+        <v>69834</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>103313</v>
+        <v>105874</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.08212033563994521</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06670280666954267</v>
+        <v>0.06722028929015418</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09944645516747819</v>
+        <v>0.1019117087305902</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>153</v>
@@ -7069,19 +7069,19 @@
         <v>154071</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>131344</v>
+        <v>132930</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>178818</v>
+        <v>177989</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.07799983786679383</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0664940683341928</v>
+        <v>0.06729711849179015</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.09052813863733739</v>
+        <v>0.09010858226397817</v>
       </c>
     </row>
     <row r="26">
@@ -7098,19 +7098,19 @@
         <v>572411</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>540402</v>
+        <v>540814</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>601769</v>
+        <v>600438</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6112943800764834</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5771109625649387</v>
+        <v>0.5775504552195829</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6426464301661541</v>
+        <v>0.6412249880817763</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>606</v>
@@ -7119,19 +7119,19 @@
         <v>669013</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>636271</v>
+        <v>638023</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>698983</v>
+        <v>699851</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6439737052997291</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6124563702237966</v>
+        <v>0.6141432873450094</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6728212519517903</v>
+        <v>0.6736573719666042</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1184</v>
@@ -7140,19 +7140,19 @@
         <v>1241424</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1196016</v>
+        <v>1197908</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1282872</v>
+        <v>1283117</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6284818602038897</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6054937794433858</v>
+        <v>0.6064515013410395</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.649465419307395</v>
+        <v>0.6495891676539375</v>
       </c>
     </row>
     <row r="27">
@@ -7244,19 +7244,19 @@
         <v>45930</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>33514</v>
+        <v>34568</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>63831</v>
+        <v>62035</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01356665009605299</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.009899086652494213</v>
+        <v>0.01021059434944511</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.018854015354666</v>
+        <v>0.01832367856358104</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>37</v>
@@ -7265,19 +7265,19 @@
         <v>38255</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>27393</v>
+        <v>27115</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>52326</v>
+        <v>51719</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01083280163399395</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.007756765613900337</v>
+        <v>0.007678142374754244</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01481711299440445</v>
+        <v>0.01464540253991703</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>81</v>
@@ -7286,19 +7286,19 @@
         <v>84186</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>68000</v>
+        <v>67065</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>103727</v>
+        <v>102843</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01217088939675454</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.009830964371586717</v>
+        <v>0.00969572758914718</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01499601241643043</v>
+        <v>0.01486824771649369</v>
       </c>
     </row>
     <row r="29">
@@ -7315,19 +7315,19 @@
         <v>595579</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>553390</v>
+        <v>553529</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>645387</v>
+        <v>641775</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1759194106917781</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1634576798097392</v>
+        <v>0.1634986317169496</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1906314693983619</v>
+        <v>0.1895644221311302</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>318</v>
@@ -7336,19 +7336,19 @@
         <v>333039</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>299406</v>
+        <v>298149</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>371462</v>
+        <v>367371</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.09430666292065165</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.08478301885706979</v>
+        <v>0.08442690722035112</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.105187092415532</v>
+        <v>0.1040284558179753</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>871</v>
@@ -7357,19 +7357,19 @@
         <v>928618</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>868581</v>
+        <v>874168</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>982443</v>
+        <v>988165</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1342521904776404</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1255724834345985</v>
+        <v>0.1263802530123179</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1420337256343434</v>
+        <v>0.142860992348598</v>
       </c>
     </row>
     <row r="30">
@@ -7386,19 +7386,19 @@
         <v>384172</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>348619</v>
+        <v>345869</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>426371</v>
+        <v>425867</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1134747812235656</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1029733577888253</v>
+        <v>0.1021609998268619</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1259393012962288</v>
+        <v>0.1257904311856517</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>496</v>
@@ -7407,19 +7407,19 @@
         <v>527009</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>483913</v>
+        <v>485313</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>570295</v>
+        <v>574777</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1492332445764138</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1370298914854194</v>
+        <v>0.1374261417626852</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1614907345055005</v>
+        <v>0.1627597800998807</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>856</v>
@@ -7428,19 +7428,19 @@
         <v>911180</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>848863</v>
+        <v>847352</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>965876</v>
+        <v>966745</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1317311910092122</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1227218568079608</v>
+        <v>0.1225034319496756</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1396386735110335</v>
+        <v>0.1397642843372612</v>
       </c>
     </row>
     <row r="31">
@@ -7457,19 +7457,19 @@
         <v>230662</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>203647</v>
+        <v>204472</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>259983</v>
+        <v>264642</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.06813180884120287</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.06015227243550914</v>
+        <v>0.0603960218610548</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.07679252494760898</v>
+        <v>0.07816869564261494</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>278</v>
@@ -7478,19 +7478,19 @@
         <v>284460</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>255925</v>
+        <v>255227</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>319889</v>
+        <v>320100</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.08055054966957381</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.07247051617112449</v>
+        <v>0.07227268562412659</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.09058315683633471</v>
+        <v>0.09064287911787679</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>497</v>
@@ -7499,19 +7499,19 @@
         <v>515122</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>474352</v>
+        <v>470820</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>557985</v>
+        <v>559237</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.07447217138271632</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.06857803389036982</v>
+        <v>0.06806735148007795</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.08066901527792672</v>
+        <v>0.08085010122487653</v>
       </c>
     </row>
     <row r="32">
@@ -7528,19 +7528,19 @@
         <v>2129181</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2062254</v>
+        <v>2065656</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>2180845</v>
+        <v>2187420</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.6289073491474004</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.6091389184671561</v>
+        <v>0.6101437349645887</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.6441675209058445</v>
+        <v>0.6461096856707508</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>2196</v>
@@ -7549,19 +7549,19 @@
         <v>2348681</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2286573</v>
+        <v>2286376</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>2400615</v>
+        <v>2401893</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.6650767411993668</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.6474897945780028</v>
+        <v>0.6474338960057979</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.6797829338310195</v>
+        <v>0.6801450073139551</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>4243</v>
@@ -7570,19 +7570,19 @@
         <v>4477862</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>4400265</v>
+        <v>4397616</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>4551222</v>
+        <v>4557223</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.6473735577336766</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.6361552603023224</v>
+        <v>0.6357722343708055</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.657979385305168</v>
+        <v>0.658847032247232</v>
       </c>
     </row>
     <row r="33">
@@ -7914,19 +7914,19 @@
         <v>7947</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3662</v>
+        <v>3529</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>16533</v>
+        <v>15271</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0115277426944177</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.005312288901414663</v>
+        <v>0.0051181946790997</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02398140050256471</v>
+        <v>0.02215060182651142</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -7938,7 +7938,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5719</v>
+        <v>5067</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.001734005661222122</v>
@@ -7947,7 +7947,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.007804485479424689</v>
+        <v>0.006915485662908086</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>10</v>
@@ -7956,19 +7956,19 @@
         <v>9218</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4469</v>
+        <v>4495</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>17480</v>
+        <v>17142</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.006481630038500945</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.003142125279787922</v>
+        <v>0.003160358595083723</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0122911915901563</v>
+        <v>0.01205339314535753</v>
       </c>
     </row>
     <row r="5">
@@ -7985,19 +7985,19 @@
         <v>177161</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>154068</v>
+        <v>151516</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>207737</v>
+        <v>204219</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2569758720673382</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2234784374456272</v>
+        <v>0.2197765030211139</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3013273311760222</v>
+        <v>0.2962237878664113</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>216</v>
@@ -8006,19 +8006,19 @@
         <v>126036</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>109757</v>
+        <v>109666</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>143962</v>
+        <v>144628</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1720041386380795</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1497877959611791</v>
+        <v>0.1496625844062943</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.196467483695778</v>
+        <v>0.1973766857768469</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>385</v>
@@ -8027,19 +8027,19 @@
         <v>303198</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>273958</v>
+        <v>271669</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>339023</v>
+        <v>334821</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2131951438326265</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1926348006039786</v>
+        <v>0.1910258092305478</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2383855020822099</v>
+        <v>0.2354310301481135</v>
       </c>
     </row>
     <row r="6">
@@ -8056,19 +8056,19 @@
         <v>38644</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>25216</v>
+        <v>25242</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>59533</v>
+        <v>58474</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.05605387650510538</v>
+        <v>0.05605387650510536</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.0365764706890554</v>
+        <v>0.03661450341043811</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.08635330414269382</v>
+        <v>0.08481717979895748</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>102</v>
@@ -8077,19 +8077,19 @@
         <v>76404</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>61460</v>
+        <v>62536</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>95161</v>
+        <v>94007</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1042694493472179</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.08387571601521721</v>
+        <v>0.08534431741865017</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1298686216234912</v>
+        <v>0.1282932500712679</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>131</v>
@@ -8098,19 +8098,19 @@
         <v>115048</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>92862</v>
+        <v>93214</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>137874</v>
+        <v>141828</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.08089640714547261</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.06529649416796697</v>
+        <v>0.0655438114427495</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.09694675200138854</v>
+        <v>0.09972706937298079</v>
       </c>
     </row>
     <row r="7">
@@ -8127,19 +8127,19 @@
         <v>21378</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>12658</v>
+        <v>13531</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>35913</v>
+        <v>36353</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.03100898545485539</v>
+        <v>0.03100898545485538</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01836063119905782</v>
+        <v>0.01962754722314242</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05209218479974342</v>
+        <v>0.05273119196256832</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>47</v>
@@ -8148,19 +8148,19 @@
         <v>33722</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>23655</v>
+        <v>24220</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>44793</v>
+        <v>46318</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04602101006423516</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03228291046234077</v>
+        <v>0.03305407909922201</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06113028517595966</v>
+        <v>0.06321151544814189</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>67</v>
@@ -8169,19 +8169,19 @@
         <v>55100</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>41574</v>
+        <v>41850</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>70838</v>
+        <v>72579</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0387437619876094</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02923302180065481</v>
+        <v>0.02942695262979851</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04981027015855334</v>
+        <v>0.05103451810380312</v>
       </c>
     </row>
     <row r="8">
@@ -8198,19 +8198,19 @@
         <v>444278</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>415027</v>
+        <v>414322</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>471184</v>
+        <v>471972</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6444335232782833</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6020050548780622</v>
+        <v>0.6009829576563107</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6834619409491096</v>
+        <v>0.6846054551626261</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>871</v>
@@ -8219,19 +8219,19 @@
         <v>495319</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>471541</v>
+        <v>472532</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>515919</v>
+        <v>517186</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6759713962892453</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.643520549910976</v>
+        <v>0.644872888552587</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7040843366511396</v>
+        <v>0.7058131638694081</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1374</v>
@@ -8240,19 +8240,19 @@
         <v>939598</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>902966</v>
+        <v>903479</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>975273</v>
+        <v>975090</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6606830569957906</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6349250790559429</v>
+        <v>0.6352857299150199</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6857686150131317</v>
+        <v>0.6856398033596179</v>
       </c>
     </row>
     <row r="9">
@@ -8344,19 +8344,19 @@
         <v>9833</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4997</v>
+        <v>4760</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>17440</v>
+        <v>17188</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.009407197458983985</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004780014310319938</v>
+        <v>0.004553416434362369</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01668445070775946</v>
+        <v>0.01644304418307968</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -8365,19 +8365,19 @@
         <v>3004</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1173</v>
+        <v>1208</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6331</v>
+        <v>6824</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.002812387021134444</v>
+        <v>0.002812387021134445</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.001098548395560978</v>
+        <v>0.001130834079988312</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.005927699978567279</v>
+        <v>0.006389272283743859</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>16</v>
@@ -8386,19 +8386,19 @@
         <v>12837</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6959</v>
+        <v>7144</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>21151</v>
+        <v>21224</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.006074373224545222</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.003292872102444792</v>
+        <v>0.003380534490350599</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01000883179888738</v>
+        <v>0.0100432009435756</v>
       </c>
     </row>
     <row r="11">
@@ -8415,19 +8415,19 @@
         <v>244447</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>215420</v>
+        <v>215168</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>275168</v>
+        <v>277712</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2338549021483818</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2060856160128803</v>
+        <v>0.2058453070966594</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2632453286504766</v>
+        <v>0.2656786566501633</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>239</v>
@@ -8436,19 +8436,19 @@
         <v>175375</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>151464</v>
+        <v>153567</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>199064</v>
+        <v>198512</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.164210572544239</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1418215219815434</v>
+        <v>0.1437904079413023</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.186391025863249</v>
+        <v>0.1858741012310845</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>445</v>
@@ -8457,19 +8457,19 @@
         <v>419822</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>383847</v>
+        <v>384757</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>455887</v>
+        <v>460927</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1986586957246508</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1816351736635795</v>
+        <v>0.1820661757275318</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2157245124505079</v>
+        <v>0.2181092454200832</v>
       </c>
     </row>
     <row r="12">
@@ -8486,19 +8486,19 @@
         <v>113500</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>92278</v>
+        <v>89812</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>140284</v>
+        <v>142689</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1085822644947662</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.08827980787875987</v>
+        <v>0.08592072721390039</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1342058527420975</v>
+        <v>0.1365066884385935</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>197</v>
@@ -8507,19 +8507,19 @@
         <v>156099</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>135898</v>
+        <v>135517</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>179208</v>
+        <v>178783</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1461614075029699</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1272466622896228</v>
+        <v>0.1268891930241761</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1677987359604812</v>
+        <v>0.1674016806353185</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>281</v>
@@ -8528,19 +8528,19 @@
         <v>269599</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>239106</v>
+        <v>239328</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>305243</v>
+        <v>308412</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1275736638242095</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1131443485187392</v>
+        <v>0.1132494649173499</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1444401697988282</v>
+        <v>0.1459396773123106</v>
       </c>
     </row>
     <row r="13">
@@ -8557,19 +8557,19 @@
         <v>46676</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>32261</v>
+        <v>32318</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>65528</v>
+        <v>69187</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04465310986931591</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03086283411620225</v>
+        <v>0.03091743919025139</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06268867952040236</v>
+        <v>0.0661894678664721</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>80</v>
@@ -8578,19 +8578,19 @@
         <v>60788</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>48428</v>
+        <v>48416</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>76759</v>
+        <v>76029</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05691794485807797</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04534500295694017</v>
+        <v>0.04533357460420821</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07187249843626986</v>
+        <v>0.07118887646084689</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>117</v>
@@ -8599,19 +8599,19 @@
         <v>107463</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>88545</v>
+        <v>87818</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>128373</v>
+        <v>130878</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05085139860970735</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04189922721009734</v>
+        <v>0.0415552855879311</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0607457446220351</v>
+        <v>0.0619310730289556</v>
       </c>
     </row>
     <row r="14">
@@ -8628,19 +8628,19 @@
         <v>630836</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>596524</v>
+        <v>594308</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>666314</v>
+        <v>668239</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.6035025260285519</v>
+        <v>0.603502526028552</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5706771812214219</v>
+        <v>0.5685567254784581</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6374425714549089</v>
+        <v>0.6392848975874967</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>990</v>
@@ -8649,19 +8649,19 @@
         <v>672725</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>640535</v>
+        <v>644483</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>699839</v>
+        <v>701636</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6298976880735786</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5997565785159321</v>
+        <v>0.6034535125900746</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6552853504190205</v>
+        <v>0.6569677171701237</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1614</v>
@@ -8670,19 +8670,19 @@
         <v>1303561</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1261509</v>
+        <v>1249445</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1346929</v>
+        <v>1347836</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6168418686168872</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5969427974065781</v>
+        <v>0.591233909189293</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6373632474046045</v>
+        <v>0.6377925574393106</v>
       </c>
     </row>
     <row r="15">
@@ -8774,19 +8774,19 @@
         <v>14893</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5853</v>
+        <v>5399</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>31119</v>
+        <v>29649</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.01859564525687524</v>
+        <v>0.01859564525687523</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.007308378821611329</v>
+        <v>0.006741265925531589</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03885653213873739</v>
+        <v>0.03702026592692734</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -8795,19 +8795,19 @@
         <v>2825</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>699</v>
+        <v>739</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6537</v>
+        <v>7114</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.003488890250211239</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0008635098756328184</v>
+        <v>0.0009130904468101128</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.008072399821468583</v>
+        <v>0.00878493205589654</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>12</v>
@@ -8816,19 +8816,19 @@
         <v>17718</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>8110</v>
+        <v>8666</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>36199</v>
+        <v>36840</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01100026611029977</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.00503485052699839</v>
+        <v>0.005380075094916432</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02247434550795349</v>
+        <v>0.02287181572672694</v>
       </c>
     </row>
     <row r="17">
@@ -8845,19 +8845,19 @@
         <v>226006</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>194733</v>
+        <v>196726</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>257799</v>
+        <v>258773</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2821995817981662</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2431509912095024</v>
+        <v>0.2456395042519016</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3218980519335295</v>
+        <v>0.323113254894441</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>119</v>
@@ -8866,19 +8866,19 @@
         <v>99942</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>82082</v>
+        <v>83905</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>118486</v>
+        <v>121825</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1234113376782635</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1013570622007846</v>
+        <v>0.10360872284811</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.146309933240819</v>
+        <v>0.1504331599229301</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>284</v>
@@ -8887,19 +8887,19 @@
         <v>325948</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>290146</v>
+        <v>289794</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>362768</v>
+        <v>363712</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2023639772902743</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.180136465746323</v>
+        <v>0.1799176175513102</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2252235533944968</v>
+        <v>0.2258097582608938</v>
       </c>
     </row>
     <row r="18">
@@ -8916,19 +8916,19 @@
         <v>94927</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>76559</v>
+        <v>74740</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>119801</v>
+        <v>117857</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1185289067356031</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.09559456920599643</v>
+        <v>0.09332289740212688</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1495880307422162</v>
+        <v>0.1471607395389346</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>169</v>
@@ -8937,19 +8937,19 @@
         <v>140035</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>121446</v>
+        <v>122452</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>163360</v>
+        <v>162926</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1729187070924849</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1499654584653644</v>
+        <v>0.1512068246326562</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.201722001722967</v>
+        <v>0.2011861365270778</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>249</v>
@@ -8958,19 +8958,19 @@
         <v>234961</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>206662</v>
+        <v>208691</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>265039</v>
+        <v>266676</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1458750280723713</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.128305579030749</v>
+        <v>0.1295652836792315</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1645486408053906</v>
+        <v>0.1655648776498856</v>
       </c>
     </row>
     <row r="19">
@@ -8987,19 +8987,19 @@
         <v>68801</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>52660</v>
+        <v>52895</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>88230</v>
+        <v>87215</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.08590751602695093</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06575319082324889</v>
+        <v>0.06604698288226141</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.110166928032689</v>
+        <v>0.1088999265477633</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>117</v>
@@ -9008,19 +9008,19 @@
         <v>94414</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>77947</v>
+        <v>79336</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>112241</v>
+        <v>110738</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.116585389752504</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.09625116882182164</v>
+        <v>0.09796672464663289</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1385986099953426</v>
+        <v>0.1367428114528176</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>176</v>
@@ -9029,19 +9029,19 @@
         <v>163215</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>141935</v>
+        <v>139358</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>189556</v>
+        <v>186538</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.101331747256858</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08811969017071804</v>
+        <v>0.08652000616566495</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1176852771794612</v>
+        <v>0.1158118349509188</v>
       </c>
     </row>
     <row r="20">
@@ -9058,19 +9058,19 @@
         <v>396247</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>366315</v>
+        <v>366321</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>430997</v>
+        <v>430256</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4947683501824045</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4573946439553647</v>
+        <v>0.4574015584041957</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5381589192272487</v>
+        <v>0.5372334454118024</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>636</v>
@@ -9079,19 +9079,19 @@
         <v>472613</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>446606</v>
+        <v>445123</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>500187</v>
+        <v>498133</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.5835956752265363</v>
+        <v>0.5835956752265362</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5514821077202303</v>
+        <v>0.5496507869716795</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6176445896733981</v>
+        <v>0.6151082804568666</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>998</v>
@@ -9100,19 +9100,19 @@
         <v>868859</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>829264</v>
+        <v>824346</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>913945</v>
+        <v>909212</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.5394289812701969</v>
+        <v>0.5394289812701968</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5148464459718263</v>
+        <v>0.5117926861517903</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5674204761629096</v>
+        <v>0.5644816935964823</v>
       </c>
     </row>
     <row r="21">
@@ -9204,19 +9204,19 @@
         <v>8591</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3443</v>
+        <v>3446</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>20289</v>
+        <v>18761</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.008717008345620697</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.003493281177483524</v>
+        <v>0.003496404053676174</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02058598815010094</v>
+        <v>0.01903637535222837</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>8</v>
@@ -9225,19 +9225,19 @@
         <v>6127</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2733</v>
+        <v>2738</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>12019</v>
+        <v>12166</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.00549731755374327</v>
+        <v>0.005497317553743267</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.002452046184550821</v>
+        <v>0.002456409241791529</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01078453460543846</v>
+        <v>0.01091648803840099</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>14</v>
@@ -9246,19 +9246,19 @@
         <v>14718</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>8640</v>
+        <v>8501</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>25838</v>
+        <v>27201</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.007008326348746019</v>
+        <v>0.007008326348746016</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.004114246863127809</v>
+        <v>0.004047990687435833</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01230336626362564</v>
+        <v>0.01295237412823262</v>
       </c>
     </row>
     <row r="23">
@@ -9275,19 +9275,19 @@
         <v>254674</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>222622</v>
+        <v>223601</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>286901</v>
+        <v>287812</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2584064347469761</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2258845880019874</v>
+        <v>0.2268784950585562</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2911055936355488</v>
+        <v>0.2920299601808409</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>241</v>
@@ -9296,19 +9296,19 @@
         <v>181512</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>158025</v>
+        <v>158893</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>205297</v>
+        <v>207015</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1628661770080893</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1417913597796874</v>
+        <v>0.1425705036835587</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1842073672704516</v>
+        <v>0.1857493539063915</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>460</v>
@@ -9317,19 +9317,19 @@
         <v>436186</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>395253</v>
+        <v>391332</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>478468</v>
+        <v>477867</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2077034545766314</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.18821181141868</v>
+        <v>0.1863447394788972</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2278370155061549</v>
+        <v>0.227551115831954</v>
       </c>
     </row>
     <row r="24">
@@ -9346,19 +9346,19 @@
         <v>80303</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>65015</v>
+        <v>63693</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>101368</v>
+        <v>98540</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.08147975833964027</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.06596746362762855</v>
+        <v>0.06462702039529107</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1028534374649124</v>
+        <v>0.09998436242317899</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>148</v>
@@ -9367,19 +9367,19 @@
         <v>109948</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>92448</v>
+        <v>92979</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>126859</v>
+        <v>128120</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.09865300303897107</v>
+        <v>0.09865300303897105</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.08295070213972594</v>
+        <v>0.08342764810631031</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1138272897353258</v>
+        <v>0.1149588027401135</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>231</v>
@@ -9388,19 +9388,19 @@
         <v>190250</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>167487</v>
+        <v>168364</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>216265</v>
+        <v>216813</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.09059355713041158</v>
+        <v>0.09059355713041156</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.07975427284598978</v>
+        <v>0.08017190407735209</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1029814052892879</v>
+        <v>0.1032422055920811</v>
       </c>
     </row>
     <row r="25">
@@ -9417,19 +9417,19 @@
         <v>56716</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>41640</v>
+        <v>41432</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>74781</v>
+        <v>76037</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05754695546941353</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04225031872404609</v>
+        <v>0.04203890220173064</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.07587705290486967</v>
+        <v>0.07715152099810206</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>109</v>
@@ -9438,19 +9438,19 @@
         <v>77858</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>65217</v>
+        <v>64681</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>94789</v>
+        <v>92748</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0698602250061575</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05851705907253128</v>
+        <v>0.05803633657890392</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.08505177763630815</v>
+        <v>0.08322062750234976</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>162</v>
@@ -9459,19 +9459,19 @@
         <v>134574</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>113906</v>
+        <v>115356</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>156065</v>
+        <v>160034</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.06408157737570895</v>
+        <v>0.06408157737570894</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05423960412402421</v>
+        <v>0.05493046868985745</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07431520388389576</v>
+        <v>0.07620511141537066</v>
       </c>
     </row>
     <row r="26">
@@ -9488,19 +9488,19 @@
         <v>585272</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>548678</v>
+        <v>552217</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>619231</v>
+        <v>622754</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5938498430983493</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5567197537485656</v>
+        <v>0.5603103580405778</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6283073659455672</v>
+        <v>0.6318816259307908</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1049</v>
@@ -9509,19 +9509,19 @@
         <v>739043</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>709801</v>
+        <v>709988</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>766588</v>
+        <v>769464</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.6631232773930389</v>
+        <v>0.6631232773930388</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6368852154646224</v>
+        <v>0.637052834984207</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6878386501757331</v>
+        <v>0.6904195879267481</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1690</v>
@@ -9530,19 +9530,19 @@
         <v>1324315</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1280922</v>
+        <v>1280530</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1368627</v>
+        <v>1370536</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.6306130845685021</v>
+        <v>0.630613084568502</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6099502309305087</v>
+        <v>0.6097635349172653</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6517136982076724</v>
+        <v>0.6526229024908596</v>
       </c>
     </row>
     <row r="27">
@@ -9634,19 +9634,19 @@
         <v>41264</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>28247</v>
+        <v>28532</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>61096</v>
+        <v>61819</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01171909262465723</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.00802222333618368</v>
+        <v>0.008103191536590984</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.0173513087694547</v>
+        <v>0.01755654759801037</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>20</v>
@@ -9655,19 +9655,19 @@
         <v>13226</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>7999</v>
+        <v>8127</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>20796</v>
+        <v>20646</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.003550626763668431</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.002147415299115193</v>
+        <v>0.002181608149546717</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.005582626774581271</v>
+        <v>0.005542397837198628</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>52</v>
@@ -9676,19 +9676,19 @@
         <v>54491</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>39053</v>
+        <v>39660</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>74505</v>
+        <v>75133</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.007519915423553257</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.005389427482160416</v>
+        <v>0.005473195210720215</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01028190549393375</v>
+        <v>0.01036858566761761</v>
       </c>
     </row>
     <row r="29">
@@ -9705,19 +9705,19 @@
         <v>902288</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>843736</v>
+        <v>848799</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>963299</v>
+        <v>974835</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2562496054294678</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2396209154888153</v>
+        <v>0.2410588729103308</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.273576809102512</v>
+        <v>0.2768530417660921</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>815</v>
@@ -9726,19 +9726,19 @@
         <v>582866</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>541447</v>
+        <v>544839</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>626628</v>
+        <v>623217</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1564716454354822</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1453526235708116</v>
+        <v>0.1462632165250383</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1682196335950517</v>
+        <v>0.1673038314051588</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1574</v>
@@ -9747,19 +9747,19 @@
         <v>1485154</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1407650</v>
+        <v>1415261</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1556385</v>
+        <v>1558833</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2049565790632304</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1942608024745962</v>
+        <v>0.1953111550479264</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2147866583472435</v>
+        <v>0.2151245382339776</v>
       </c>
     </row>
     <row r="30">
@@ -9776,19 +9776,19 @@
         <v>327374</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>289796</v>
+        <v>286456</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>369299</v>
+        <v>369517</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.09297404591458523</v>
+        <v>0.09297404591458525</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.08230190647136178</v>
+        <v>0.08135339309923244</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1048808217757584</v>
+        <v>0.1049427345162572</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>616</v>
@@ -9797,19 +9797,19 @@
         <v>482485</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>445004</v>
+        <v>443725</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>518530</v>
+        <v>516626</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.129524063590863</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1194622415742658</v>
+        <v>0.1191188957049781</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1392003759574389</v>
+        <v>0.1386894100143785</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>892</v>
@@ -9818,19 +9818,19 @@
         <v>809858</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>760512</v>
+        <v>757141</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>871370</v>
+        <v>870750</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1117633759476784</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1049533442598985</v>
+        <v>0.1044881293655703</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1202521406377759</v>
+        <v>0.1201666192152664</v>
       </c>
     </row>
     <row r="31">
@@ -9847,19 +9847,19 @@
         <v>193570</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>164330</v>
+        <v>165793</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>225012</v>
+        <v>227127</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.05497387964522717</v>
+        <v>0.05497387964522718</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.04666982398031927</v>
+        <v>0.04708520222214906</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.06390348627736248</v>
+        <v>0.06450395165697341</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>353</v>
@@ -9868,19 +9868,19 @@
         <v>266782</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>241751</v>
+        <v>239767</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>293738</v>
+        <v>296596</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.071618296268266</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.06489845197793014</v>
+        <v>0.06436604529781662</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.07885457389847979</v>
+        <v>0.07962168231156226</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>522</v>
@@ -9889,19 +9889,19 @@
         <v>460353</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>421706</v>
+        <v>421966</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>502945</v>
+        <v>503381</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.06353030333586619</v>
+        <v>0.06353030333586618</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.0581969044880183</v>
+        <v>0.05823287480326307</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.0694082830953171</v>
+        <v>0.06946835514817658</v>
       </c>
     </row>
     <row r="32">
@@ -9918,19 +9918,19 @@
         <v>2056632</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1986062</v>
+        <v>1987170</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>2124231</v>
+        <v>2122541</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.5840833763860624</v>
+        <v>0.5840833763860627</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.5640415252982481</v>
+        <v>0.564356147166497</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.603281406635373</v>
+        <v>0.6028013052205861</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>3546</v>
@@ -9939,19 +9939,19 @@
         <v>2379700</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2323536</v>
+        <v>2330539</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>2429237</v>
+        <v>2434573</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.6388353679417204</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.6237579972798393</v>
+        <v>0.6256379214514237</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.6521335238247398</v>
+        <v>0.6535660459345083</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>5676</v>
@@ -9960,19 +9960,19 @@
         <v>4436332</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>4348116</v>
+        <v>4349111</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>4517229</v>
+        <v>4519540</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.6122298262296718</v>
+        <v>0.6122298262296717</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.60005563814056</v>
+        <v>0.6001929148202804</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.6233938298116157</v>
+        <v>0.623712758218127</v>
       </c>
     </row>
     <row r="33">
